--- a/medicine/Psychotrope/Brasserie_Cornelissen/Brasserie_Cornelissen.xlsx
+++ b/medicine/Psychotrope/Brasserie_Cornelissen/Brasserie_Cornelissen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Brasserie Cornelissen (en néerlandais : Brouwerij Cornelissen) est une brasserie familiale située à Opitter dans la commune de Brée en province de Limbourg (Belgique). On y brasse principalement les marques de bières : Sint-Gummarus, Ops-Ale et Pax Pils ainsi que Herkenrode qui est une bière belge d'Abbaye reconnue.
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est au début du XIXe siècle que Jan Mathijs Cornelissen, alors bourgmestre de Gerdingen près de Brée dans le nord du Limbourg belge, commence à brasser dans son village. Avec Charles Vissers, agriculteur et brasseur, il fonde en 1859 la brasserie Sint-Jozef à Opitter, un village voisin. Le fils de Jan Mathijs, Jozef, né cette même année épouse en 1884 Sophie, la fille de Charles Vissers. Il reprend l'entreprise créée par son père et son beau-père. Le couple aura 10 enfants. Sophie meurt jeune tandis que Jozef décède à 91 ans en 1950. En 1929, Jaak, un des fils de Jozef, prend les commandes de l'entreprise et décide de la construction d'une nouvelle brasserie (toujours à Opitter, sur la place de l'église - Itterplein). Elle est inaugurée en 1934 ou 1935. En 1937, la brasserie débute la production de deux bières de type pils  : la Pax Pils et l'Ops-Ale. Dans les années 1960, Jan, le fils de Jaak, dirige l'entreprise familiale en développant l'exportation. À sa mort en 1979, son fils Josephus, qui a suivi une formation à l'école brassicole de Gand, diversifie la production en produisant la Bosbier (littéralement : la bière du bois) et la bière blanche Limburgse Witte. En 2004, Jef, le fils unique de Josephus, devient le maître-brasseur. Il représente la sixième génération de brasseurs Cornelissen. Depuis 2009, en accord avec les autorités religieuses représentant l'abbaye de Herkenrode, il produit les bières d'abbaye Herkenrode. Il entreprend en 2014 d'importants travaux de rénovation et décide en 2015 que la brasserie prendra désormais le nom de la famille Cornelissen.
 </t>
@@ -544,7 +558,9 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie produit trois bières de fermentation basse :
 Pax Pils, une bière blonde de type pils titrant 5 % en volume d'alcool
